--- a/data/income_statement/3digits/total/331_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/331_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>331-Repair of fabricated metal products, machinery and equipment</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>331-Repair of fabricated metal products, machinery and equipment</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>3759838.98907</v>
@@ -956,37 +862,42 @@
         <v>3908796.91441</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>4874104.789950001</v>
+        <v>4880422.35094</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>5246508.513970001</v>
+        <v>5250752.72841</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>6722839.495940001</v>
+        <v>6725198.272059999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>8479334.098329999</v>
+        <v>8504463.499299999</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>10615297.66831</v>
+        <v>10794269.26218</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>12324146.00434</v>
+        <v>12367053.85406</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>16414267.55286</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>22779231.87669</v>
+        <v>22841353.28515</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>26765143.37471</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>27166528.41875</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>32491078.833</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>2541039.20379</v>
@@ -995,37 +906,42 @@
         <v>2898337.61202</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>3764999.119609999</v>
+        <v>3765985.29751</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>4016557.41647</v>
+        <v>4017893.57088</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>5386000.89569</v>
+        <v>5388337.00489</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>6929918.02612</v>
+        <v>6950199.45385</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>8751411.22878</v>
+        <v>8844159.127559999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>10122410.06933</v>
+        <v>10152701.26253</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>12937484.12854</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>16898884.3342</v>
+        <v>16956546.45699</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>19361598.71923</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>19708712.4765</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>23758254.51</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>1148577.01092</v>
@@ -1034,76 +950,86 @@
         <v>943698.04052</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>1015816.77816</v>
+        <v>1021138.79107</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>1124065.83497</v>
+        <v>1126966.41728</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1228564.56731</v>
+        <v>1228584.92889</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1397338.40702</v>
+        <v>1401787.78452</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1725673.25161</v>
+        <v>1804158.38892</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>2010930.12848</v>
+        <v>2020960.16407</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>3295789.38699</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>5629636.26282</v>
+        <v>5632387.58894</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>7078309.316370001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>7125242.6544</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>8350729.416</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>70222.77436</v>
+        <v>70222.77436000001</v>
       </c>
       <c r="D8" s="48" t="n">
         <v>66761.26187</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>93288.89218</v>
+        <v>93298.26235999999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>105885.26253</v>
+        <v>105892.74025</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>108274.03294</v>
+        <v>108276.33828</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>152077.66519</v>
+        <v>152476.26093</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>138213.18792</v>
+        <v>145951.7457</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>190805.80653</v>
+        <v>193392.42746</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>180994.03733</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>250711.27967</v>
+        <v>252419.23922</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>325235.33911</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>332573.28785</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>382094.907</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>39327.76998</v>
@@ -1112,115 +1038,130 @@
         <v>55750.92495</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>64818.29330999999</v>
+        <v>65682.58761</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>65509.74480000001</v>
+        <v>65558.78962</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>50161.12529</v>
+        <v>50176.97177</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>110340.35148</v>
+        <v>110383.93421</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>119658.21285</v>
+        <v>120047.45316</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>209415.04713</v>
+        <v>210140.18582</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>298935.31672</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>315724.04112</v>
+        <v>315926.82981</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>444595.88936</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>448589.84147</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>640823.099</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>30837.35864</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>47139.13916000001</v>
+        <v>47139.13916</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>55891.2386</v>
+        <v>56755.53290000001</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>50506.35004999999</v>
+        <v>50511.57558</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>40747.37763</v>
+        <v>40760.90586</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>100880.70494</v>
+        <v>100922.02328</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>111484.11148</v>
+        <v>111802.59501</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>187748.62165</v>
+        <v>188324.25511</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>271461.7716799999</v>
+        <v>271461.77168</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>288531.25158</v>
+        <v>288731.60419</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>417088.70982</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>420345.38787</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>606617.175</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>7950.992709999999</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>7608.14322</v>
+        <v>7608.143220000001</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>6968.63254</v>
+        <v>6968.632539999999</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>11699.47508</v>
+        <v>11743.29437</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>5804.715990000001</v>
+        <v>5807.03424</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>7984.88734</v>
+        <v>7987.15173</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>6375.716479999999</v>
+        <v>6424.47242</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>19659.93673</v>
+        <v>19805.04767</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>21686.42223</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>18475.00862</v>
+        <v>18475.27962</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>24216.17437</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>24945.50153</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>26708.082</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>539.41863</v>
@@ -1241,25 +1182,30 @@
         <v>1474.7592</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1798.38489</v>
+        <v>1820.38573</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>2006.48875</v>
+        <v>2010.88304</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>5787.122810000001</v>
+        <v>5787.12281</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>8717.780919999999</v>
+        <v>8719.946</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>3291.00517</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>3298.95207</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>7497.842</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>3720511.21909</v>
@@ -1268,37 +1214,42 @@
         <v>3853045.98946</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>4809286.49664</v>
+        <v>4814739.76333</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>5180998.76917</v>
+        <v>5185193.93879</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>6672678.370650001</v>
+        <v>6675021.300290001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>8368993.746850001</v>
+        <v>8394079.565090001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>10495639.45546</v>
+        <v>10674221.80902</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>12114730.95721</v>
+        <v>12156913.66824</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>16115332.23614</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>22463507.83557</v>
+        <v>22525426.45534</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>26320547.48535</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>26717938.57728</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>31850255.734</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>2973090.61104</v>
@@ -1307,43 +1258,48 @@
         <v>3112139.22798</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>3915522.54467</v>
+        <v>3918071.44243</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>4336839.8484</v>
+        <v>4338933.57469</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>5648812.6115</v>
+        <v>5650465.29608</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>6825870.80458</v>
+        <v>6847116.8355</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>8270541.694030001</v>
+        <v>8410664.32241</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>9572678.59276</v>
+        <v>9596397.17966</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>12770795.02238</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>17590097.67768</v>
+        <v>17643084.08418</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>21772960.85203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>22117760.51109</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>25839747.272</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>633172.4636799999</v>
+        <v>633172.46368</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>411683.51897</v>
+        <v>411683.5189699999</v>
       </c>
       <c r="E15" s="48" t="n">
         <v>489056.32972</v>
@@ -1352,70 +1308,80 @@
         <v>488065.70849</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>514286.76948</v>
+        <v>514413.3415799999</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>572269.07224</v>
+        <v>572469.7930600001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>633581.7879</v>
+        <v>663028.0997200001</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>663860.3713499999</v>
+        <v>663964.5574500001</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>992459.88619</v>
+        <v>992459.8861900001</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1147846.46295</v>
+        <v>1157067.53452</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1544347.51583</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1579248.03293</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>2189569.634</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>652435.68671</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>721954.53144</v>
+        <v>721954.5314399999</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1036450.02096</v>
+        <v>1036683.90587</v>
       </c>
       <c r="F16" s="48" t="n">
         <v>1132394.38251</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1831941.60891</v>
+        <v>1832699.31615</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1845331.97162</v>
+        <v>1850553.33956</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1879149.97215</v>
+        <v>1908793.27627</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>2280872.77679</v>
+        <v>2289155.2406</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>5534553.798520001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>3753220.1766</v>
+        <v>3766435.520870001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>4001605.21651</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>4181466.42249</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>5849267.995</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1644613.72702</v>
@@ -1424,37 +1390,42 @@
         <v>1956302.63101</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>2378091.36765</v>
+        <v>2380406.3805</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2696399.79342</v>
+        <v>2698493.51971</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>3252535.42444</v>
+        <v>3253303.82968</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>4355572.6899</v>
+        <v>4371396.63206</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>5725156.49409</v>
+        <v>5802970.286780001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>6599094.51515</v>
+        <v>6614303.500209999</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>6201177.43782</v>
+        <v>6201177.437820001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>12640766.72081</v>
+        <v>12671232.17983</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>15462443.50589</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>15592131.25484</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>17753041.47</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>42868.73363</v>
@@ -1472,106 +1443,121 @@
         <v>50048.80867</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>52697.07081999999</v>
+        <v>52697.07082</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>32653.43989</v>
+        <v>35872.65964</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>28850.92947</v>
+        <v>28973.8814</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>42603.89984999999</v>
+        <v>42603.89985</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>48264.31731999999</v>
+        <v>48348.84896000001</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>764564.6138000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>764914.8008300002</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>47868.173</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>747420.60805</v>
+        <v>747420.6080499999</v>
       </c>
       <c r="D19" s="47" t="n">
         <v>740906.76148</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>893763.9519700001</v>
+        <v>896668.3208999999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>844158.92077</v>
+        <v>846260.3641000001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1023865.75915</v>
+        <v>1024556.00421</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1543122.94227</v>
+        <v>1546962.72959</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2225097.76143</v>
+        <v>2263557.48661</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2542052.36445</v>
+        <v>2560516.48858</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>3344537.21376</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>4873410.15789</v>
+        <v>4882342.37116</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>4547586.63332</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>4600178.06619</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>6010508.462</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>484455.29989</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>542246.7140899999</v>
+        <v>542246.71409</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>637048.6576599999</v>
+        <v>641217.1495000001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>678511.21201</v>
+        <v>680491.7063600001</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>804135.50001</v>
+        <v>804861.1276099999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1082231.00573</v>
+        <v>1085607.31294</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1168059.01604</v>
+        <v>1189435.49566</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1365936.13087</v>
+        <v>1389807.02998</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1535966.51742</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1970539.61445</v>
+        <v>1983858.96801</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2502778.91868</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2548260.81888</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2696960.368</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1432.38865</v>
@@ -1580,7 +1566,7 @@
         <v>2730.29158</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>966.94562</v>
+        <v>966.9456200000001</v>
       </c>
       <c r="F21" s="48" t="n">
         <v>737.94683</v>
@@ -1601,16 +1587,21 @@
         <v>6018.917179999999</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>8507.468499999999</v>
+        <v>8507.468500000001</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>13426.13477</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>13452.87596</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>16121.981</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>62941.06817</v>
@@ -1622,34 +1613,39 @@
         <v>78296.33411</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>88794.61001999998</v>
+        <v>88795.09715999999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>109993.28343</v>
+        <v>110103.10591</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>135060.19637</v>
+        <v>135557.64129</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>150093.89449</v>
+        <v>152389.42833</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>171731.68941</v>
+        <v>180007.95517</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>217180.78909</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>316926.3577999999</v>
+        <v>317555.83513</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>389708.48529</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>394444.1796499999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>393876.289</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>420081.84307</v>
@@ -1658,37 +1654,42 @@
         <v>467043.88885</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>557785.37793</v>
+        <v>561953.86977</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>588978.65516</v>
+        <v>590958.66237</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>692579.7309099999</v>
+        <v>693195.53603</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>935167.60749</v>
+        <v>938046.4697799999</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1004179.82483</v>
+        <v>1023260.77061</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1166876.59143</v>
+        <v>1182471.22478</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1312766.81115</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1645105.78815</v>
+        <v>1657795.66438</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2099644.29862</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2140363.76327</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2286962.098</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>262965.30816</v>
@@ -1697,76 +1698,86 @@
         <v>198660.04739</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>256715.29431</v>
+        <v>255451.1714</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>165647.70876</v>
+        <v>165768.65774</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>219730.25914</v>
+        <v>219694.8766</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>460891.93654</v>
+        <v>461355.41665</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1057038.74539</v>
+        <v>1074121.99095</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1176116.23358</v>
+        <v>1170709.4586</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>1808570.69634</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>2902870.54344</v>
+        <v>2898483.40315</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>2044807.71464</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2051917.24731</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>3313548.094</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>277111.73139</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>349427.3017</v>
+        <v>349427.3017000001</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>588491.5749400001</v>
+        <v>588691.3738599999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>417015.04842</v>
+        <v>417358.45024</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>829674.4403599999</v>
+        <v>829753.2384800001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>993695.4511800001</v>
+        <v>994980.27537</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1362649.40424</v>
+        <v>1372184.12277</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1325447.41126</v>
+        <v>1351496.87628</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>1667438.88156</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>4483787.70817</v>
+        <v>4511162.486350001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>2663057.01542</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>2724983.47694</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>5034745.854</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>13471.11881</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>67176.90112000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>13833.947</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1790.95318</v>
@@ -1838,13 +1854,18 @@
         <v>13628.278</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>5129.4331</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>5129.433099999999</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>4643.731</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>28705.73336</v>
@@ -1853,37 +1874,42 @@
         <v>22579.8076</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>22079.86076</v>
+        <v>22086.54852</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>26140.95959</v>
+        <v>26197.0335</v>
       </c>
       <c r="G28" s="48" t="n">
         <v>26784.21237</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>25834.16491</v>
+        <v>26125.72473</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>34484.50862000001</v>
+        <v>36764.02325</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>42580.68607999999</v>
+        <v>42777.54062</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>66908.45986999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>71278.11193000001</v>
+        <v>71913.64409</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>93026.41507</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>93385.5607</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>92774.05</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>3615.82009</v>
@@ -1907,7 +1933,7 @@
         <v>5021.41038</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>7703.143879999999</v>
+        <v>10456.03364</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>29810.16745</v>
@@ -1916,19 +1942,24 @@
         <v>19316.69201</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>22447.39574</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>22574.95941</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>40477.035</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>8104.658820000001</v>
+        <v>8104.65882</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>441.7124299999999</v>
+        <v>441.71243</v>
       </c>
       <c r="E30" s="48" t="n">
         <v>1476.98819</v>
@@ -1940,13 +1971,13 @@
         <v>5411.768410000001</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>8089.22715</v>
+        <v>8089.227150000001</v>
       </c>
       <c r="I30" s="48" t="n">
         <v>5772.551109999999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>6093.287119999999</v>
+        <v>6352.45172</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>20952.89158</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>25864.11957</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>11123.371</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>300.68347</v>
@@ -1979,28 +2015,33 @@
         <v>723.8827199999999</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1373.07795</v>
+        <v>1374.74372</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>11487.93847</v>
+        <v>11491.96445</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1631.81134</v>
+        <v>1631.81186</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>966.1516199999999</v>
+        <v>966.15162</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>24339.70903</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>3693.86652</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>3696.43643</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>12520.132</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>195063.10165</v>
@@ -2009,37 +2050,42 @@
         <v>203595.83019</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>465937.95777</v>
+        <v>466130.57694</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>282102.53613</v>
+        <v>282389.7850200001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>695748.07145</v>
+        <v>695826.8286700001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>838544.3118500001</v>
+        <v>839396.88222</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1219513.52908</v>
+        <v>1226582.36609</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1159825.08981</v>
+        <v>1177738.66075</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>1410308.68787</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>4113820.42153</v>
+        <v>4140706.69818</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>2083342.74981</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>2144775.15666</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>4600191.546</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>142.28134</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>42877.12475</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>98.08799999999999</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>96.62969</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>107.98592</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>21.703</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>25820.75098</v>
@@ -2126,37 +2182,42 @@
         <v>110756.89207</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>90787.76174</v>
+        <v>90788.25373000001</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>81259.28994000002</v>
+        <v>81259.36896000001</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>65831.80250999999</v>
+        <v>65831.84341</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>95432.70237</v>
+        <v>95571.7306</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>74440.91472</v>
+        <v>74623.25563</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>97497.22233</v>
+        <v>102424.20699</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>130244.76474</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>179142.06025</v>
+        <v>178995.02962</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>319391.02382</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>319395.79928</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>259062.251</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>233870.58815</v>
@@ -2165,40 +2226,45 @@
         <v>298801.79573</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>494594.4152100001</v>
+        <v>495318.80696</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>373527.4792400001</v>
+        <v>373717.1784</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>798113.5151099999</v>
+        <v>798161.40584</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>947044.9736500001</v>
+        <v>948479.96507</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1466115.8139</v>
+        <v>1472666.07146</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1392173.1086</v>
+        <v>1421647.26917</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>1525796.01495</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>4431307.06454</v>
+        <v>4454466.015889999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>2448344.37835</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>2508685.38634</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>5352045.551</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>935.5951100000001</v>
+        <v>935.59511</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>1900.4557</v>
@@ -2207,13 +2273,13 @@
         <v>3154.36203</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>5753.845939999999</v>
+        <v>5753.84594</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>7793.13059</v>
+        <v>7793.130590000001</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>3223.77213</v>
+        <v>3230.87966</v>
       </c>
       <c r="I37" s="48" t="n">
         <v>4196.955349999999</v>
@@ -2225,16 +2291,21 @@
         <v>6476.90274</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>5550.78048</v>
+        <v>5551.725469999998</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>7679.764529999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>7702.243199999999</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>11430.65</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>17137.52225</v>
@@ -2243,10 +2314,10 @@
         <v>22676.80925</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>8597.699619999999</v>
+        <v>8597.699620000001</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>46470.45919000002</v>
+        <v>46470.45919000001</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>13068.73883</v>
@@ -2255,10 +2326,10 @@
         <v>18053.49598</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>32013.71517</v>
+        <v>32021.96613</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>63968.42119</v>
+        <v>64437.59275</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>16825.49516</v>
@@ -2267,13 +2338,18 @@
         <v>17471.31926</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>52560.18769</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>55418.92477999999</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>72068.046</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>128.45872</v>
@@ -2294,7 +2370,7 @@
         <v>1424.33571</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>276.1142599999999</v>
+        <v>276.11426</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>3915.9839</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>1090.60589</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>3109.463</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>199239.37481</v>
@@ -2321,40 +2402,45 @@
         <v>188752.16</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>420625.14514</v>
+        <v>421349.41674</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>273025.45689</v>
+        <v>273214.8905800001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>741953.5398800002</v>
+        <v>742001.43061</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>867161.72364</v>
+        <v>868562.9866099999</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1388322.4474</v>
+        <v>1394822.69013</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1269263.25328</v>
+        <v>1284977.48868</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>1420540.5081</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>4267003.558440001</v>
+        <v>4290158.61592</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>2159320.03027</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>2217011.28854</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>5054790.504</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>98.37886000000002</v>
+        <v>98.37886</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>96.63793</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>960.38545</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>37.285</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>69.85170000000001</v>
@@ -2425,50 +2516,60 @@
       <c r="M42" s="48" t="n">
         <v>4e-05</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>16261.4067</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>85327.25372999998</v>
+        <v>85327.25373000001</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>61731.04473</v>
+        <v>61731.16488</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>47729.84975</v>
+        <v>47730.11522</v>
       </c>
       <c r="G43" s="48" t="n">
         <v>34862.40998</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>57050.59582</v>
+        <v>57077.21674</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>41273.32845</v>
+        <v>41315.09232</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>48908.41223</v>
+        <v>62199.16584</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>81714.03868</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>138366.19733</v>
+        <v>138369.14621</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>226733.40448</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>226501.93844</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>210609.603</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>84159.53987000001</v>
@@ -2477,37 +2578,42 @@
         <v>61307.98881</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>91804.49287999999</v>
+        <v>91840.77566</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>85155.72365</v>
+        <v>85191.06254000001</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>178958.78422</v>
+        <v>179226.47012</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>196014.82209</v>
+        <v>197293.1476</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>282924.18366</v>
+        <v>301178.074</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>254844.85943</v>
+        <v>255314.57034</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>275755.15511</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>320931.60445</v>
+        <v>321081.83918</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>276193.74519</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>282905.97351</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>404280.627</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>78029.48603</v>
@@ -2516,37 +2622,42 @@
         <v>47639.41914</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>59646.9598</v>
+        <v>59683.24258</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>73100.34393999999</v>
+        <v>73135.68283000001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>93393.02519</v>
+        <v>93660.71108999998</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>102110.80368</v>
+        <v>103389.12919</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>125300.78647</v>
+        <v>128100.28036</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>140413.7197</v>
+        <v>140868.37481</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>174626.43938</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>248707.83141</v>
+        <v>248858.06614</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>236032.71272</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>242731.89346</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>296260.378</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>6130.05384</v>
@@ -2567,10 +2678,10 @@
         <v>93904.01840999999</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>157623.39719</v>
+        <v>173077.79364</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>114431.13973</v>
+        <v>114446.19553</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>101128.71573</v>
@@ -2579,13 +2690,18 @@
         <v>72223.77303999999</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>40161.03247</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>40174.08005</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>108020.249</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>222046.91153</v>
@@ -2594,37 +2710,42 @@
         <v>187977.56455</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>258807.96116</v>
+        <v>256982.96264</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>123979.55429</v>
+        <v>124218.86704</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>72332.40017000001</v>
+        <v>72060.23912</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>311527.59198</v>
+        <v>310562.57935</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>670648.1520700001</v>
+        <v>672461.96826</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>854545.6768100001</v>
+        <v>845244.4953699999</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>1674458.40784</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>2634419.58262</v>
+        <v>2634098.03443</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1983326.60652</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1985309.3644</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2591967.77</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>66521.23448</v>
@@ -2633,37 +2754,42 @@
         <v>30675.69933</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>36484.31733</v>
+        <v>36486.90701</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>64802.03221999999</v>
+        <v>66501.20822</v>
       </c>
       <c r="G48" s="47" t="n">
         <v>68965.18017000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>154634.66691</v>
+        <v>154894.2153</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>271566.4756599999</v>
+        <v>271948.4480800001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>198546.17875</v>
+        <v>199571.092</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>88660.39222999998</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>136439.72874</v>
+        <v>137081.08699</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>384645.00764</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>386368.33758</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>279367.145</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>3642.9517</v>
@@ -2675,7 +2801,7 @@
         <v>1965.22343</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>568.6031299999999</v>
+        <v>568.60313</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>1905.39809</v>
@@ -2684,7 +2810,7 @@
         <v>709.51176</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>989.05788</v>
+        <v>1008.90326</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>2806.70727</v>
@@ -2696,13 +2822,18 @@
         <v>34243.73487</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>7257.472400000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>7605.75171</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>5731.709</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>62878.28278</v>
@@ -2711,76 +2842,86 @@
         <v>26363.88175</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>34519.0939</v>
+        <v>34521.68358</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>64233.42909000001</v>
+        <v>65932.60509</v>
       </c>
       <c r="G50" s="48" t="n">
         <v>67059.78208</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>153925.15515</v>
+        <v>154184.70354</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>270577.41778</v>
+        <v>270939.54482</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>195739.47148</v>
+        <v>196764.38473</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>83646.90508</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>102195.99387</v>
+        <v>102837.35212</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>377387.53524</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>378762.58587</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>273635.436</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>44877.30422999999</v>
+        <v>44877.30423</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>78403.30159999999</v>
+        <v>78403.30160000001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>272481.14761</v>
+        <v>272664.42364</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>98392.13895000001</v>
+        <v>98444.78098</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>81063.32556</v>
+        <v>81064.96894999999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>226559.04479</v>
+        <v>227381.52503</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>139104.0455</v>
+        <v>139625.52298</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>251238.42868</v>
+        <v>251918.893</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>111355.86633</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>294474.06808</v>
+        <v>296692.76136</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>348492.32002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>351801.6132200001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>264597.365</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>3226.63904</v>
@@ -2798,28 +2939,33 @@
         <v>3020.86837</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>7907.1221</v>
+        <v>8693.626819999998</v>
       </c>
       <c r="I52" s="48" t="n">
         <v>5804.9395</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>10195.47184</v>
+        <v>10206.70791</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>7952.630889999999</v>
+        <v>7952.63089</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>2657.3347</v>
+        <v>2665.73165</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>3835.1893</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>6143.09407</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>9641.954</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>10682.11595</v>
@@ -2834,70 +2980,80 @@
         <v>7792.04735</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>6265.914880000001</v>
+        <v>6266.57088</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>5863.962310000001</v>
+        <v>5882.36531</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>11954.69392</v>
+        <v>11969.26362</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>20583.82441</v>
+        <v>20584.42191</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>9902.42412</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>60555.3648</v>
+        <v>60574.99183</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>87930.10016000002</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>87930.34516</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>28870.838</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>30968.54924</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>64883.02728999999</v>
+        <v>64883.02729000001</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>265830.01443</v>
+        <v>266013.29046</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>88318.47858000001</v>
+        <v>88371.12061</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>71776.54231</v>
+        <v>71777.5297</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>212787.96038</v>
+        <v>212805.5329</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>121344.41208</v>
+        <v>121851.31986</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>220459.13243</v>
+        <v>221127.76318</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>93500.81131999999</v>
+        <v>93500.81132000001</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>231261.36858</v>
+        <v>233452.03788</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>256727.03056</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>257728.17399</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>226084.573</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>243690.84178</v>
@@ -2906,37 +3062,42 @@
         <v>140249.96228</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>22811.13088</v>
+        <v>20805.44601</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>90389.44756</v>
+        <v>92275.29428</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>60234.25478000002</v>
+        <v>59960.45033999999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>239603.2141</v>
+        <v>238075.26962</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>803110.5822300001</v>
+        <v>804784.8933599999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>801853.4268799999</v>
+        <v>792896.69437</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>1651762.93374</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>2476385.24328</v>
+        <v>2474486.36006</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>2019479.29414</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>2019876.08876</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2606737.55</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>53121.69997</v>
@@ -2948,34 +3109,39 @@
         <v>68375.19613</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>58331.01645999999</v>
+        <v>58331.01646</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>60066.06853</v>
+        <v>60081.76698</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>88646.09430000001</v>
+        <v>88764.67597999999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>146820.82305</v>
+        <v>147503.02305</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>223901.99052</v>
+        <v>224201.68935</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>343639.1342800001</v>
+        <v>343639.13428</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>493566.26469</v>
+        <v>494391.82848</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>217033.35273</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>221379.27244</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>380217.653</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>190569.14181</v>
@@ -2984,34 +3150,37 @@
         <v>84302.09925</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-45564.06525</v>
+        <v>-47569.75012</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>32058.43110000001</v>
+        <v>33944.27782000001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>168.1862500000074</v>
+        <v>-121.3166400000006</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>150957.1198</v>
+        <v>149310.59364</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>656289.7591799999</v>
+        <v>657281.87031</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>577951.4363599999</v>
+        <v>568695.0050199999</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>1308123.79946</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>1982818.97859</v>
+        <v>1980094.53158</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1802445.94141</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1798496.81632</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>2226519.897</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>3452</v>
@@ -3038,34 +3210,37 @@
         <v>3620</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>3692</v>
+        <v>3695</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>3814</v>
+        <v>3818</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>3978</v>
+        <v>3985</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>4055</v>
+        <v>4065</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>4106</v>
+        <v>4147</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>4190</v>
+        <v>4219</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>4430</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>4270</v>
+        <v>4647</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>4407</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>4932</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>5251</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>